--- a/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
+++ b/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="17385" windowHeight="14625"/>
+    <workbookView xWindow="7740" yWindow="0" windowWidth="17385" windowHeight="10995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="E3 VMT in BAU and Scoping Plan" sheetId="11" r:id="rId2"/>
     <sheet name="passenger rail" sheetId="12" r:id="rId3"/>
-    <sheet name="Scoping Plan estimates" sheetId="10" r:id="rId4"/>
+    <sheet name="California Pathways estimates" sheetId="10" r:id="rId4"/>
     <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Methodology</t>
   </si>
@@ -211,12 +211,6 @@
     <t>https://www.arb.ca.gov/cc/scopingplan/scoping_plan_2017.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">It is difficult to see the policies that come together to cause such a reduction in freight efficiency over the next </t>
-  </si>
-  <si>
-    <t>decade, and this is noted in the guidance for the web tool.</t>
-  </si>
-  <si>
     <t>is a common approach, as the infrastructure costs and savings are difficult to evaluate.</t>
   </si>
   <si>
@@ -238,37 +232,16 @@
     <t>Freight Notes</t>
   </si>
   <si>
-    <t>Having established that, handling of the off road segments is straightforward as there are no fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the 25% improvement is accomplished by setting the relevant freight potentials at 25% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with the policy scheduling ramping up to 100% in 2030. </t>
-  </si>
-  <si>
     <t xml:space="preserve">PCiCDTdtTDM Perc Change in Cargo Dist Transported due to TDM sets the relevant potential improvement. </t>
   </si>
   <si>
     <t>Background:  At page 25, the Scoping Plan calls for an improvement in "freight system efficiency of 25% by 2030," p. 25.</t>
   </si>
   <si>
-    <t>However, this potential improvement -- 25% -- is allowed for off-road freight, in order to provide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a fair test of the Scoping Plan assumptions.  </t>
-  </si>
-  <si>
-    <t>* off road freight improvement allowed</t>
-  </si>
-  <si>
     <t>For background, the "SP cost estimates" tab shows the estimated cost from the Scoping Plan analysis (zero), which</t>
   </si>
   <si>
-    <t>HDV and LDV freight vehicle improvement already provides a good, rough approximation for such an efficiency increase.</t>
-  </si>
-  <si>
-    <t>efficiency improvements for such vehicles in the BAU, planned, or EI scenarios.</t>
+    <t>* potential reduction in freight miles</t>
   </si>
 </sst>
 </file>
@@ -812,23 +785,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -836,151 +809,106 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1000,14 +928,14 @@
       <selection activeCell="O44" sqref="A40:O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1"/>
-    <col min="36" max="36" width="21.7109375" customWidth="1"/>
-    <col min="40" max="40" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.265625" customWidth="1"/>
+    <col min="36" max="36" width="21.73046875" customWidth="1"/>
+    <col min="40" max="40" width="14.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="14.45" x14ac:dyDescent="0.35">
@@ -3909,7 +3837,7 @@
       </c>
       <c r="AN41" s="6"/>
     </row>
-    <row r="42" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4055,7 +3983,7 @@
       </c>
       <c r="AN42" s="6"/>
     </row>
-    <row r="43" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4201,7 +4129,7 @@
       </c>
       <c r="AN43" s="6"/>
     </row>
-    <row r="44" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4347,24 +4275,24 @@
       </c>
       <c r="AN44" s="6"/>
     </row>
-    <row r="45" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN45" s="6"/>
     </row>
-    <row r="46" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.45">
       <c r="B46" t="str">
         <f t="shared" ref="B46:B52" si="8">AJ38</f>
         <v xml:space="preserve">2050 effects </v>
       </c>
       <c r="AN46" s="6"/>
     </row>
-    <row r="47" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
       <c r="B47" t="str">
         <f t="shared" si="8"/>
         <v>% change in Scoping Plan</v>
       </c>
       <c r="AN47" s="6"/>
     </row>
-    <row r="48" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4374,7 +4302,7 @@
       </c>
       <c r="AN48" s="6"/>
     </row>
-    <row r="49" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -4384,7 +4312,7 @@
       </c>
       <c r="AN49" s="6"/>
     </row>
-    <row r="50" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -4394,7 +4322,7 @@
       </c>
       <c r="AN50" s="6"/>
     </row>
-    <row r="51" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -4404,7 +4332,7 @@
       </c>
       <c r="AN51" s="6"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -4414,157 +4342,157 @@
       </c>
       <c r="AN52" s="6"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN53" s="6"/>
     </row>
-    <row r="54" spans="1:40" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN54" s="6"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN55" s="6"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN56" s="6"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN57" s="6"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN58" s="6"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN59" s="6"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN60" s="6"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN61" s="6"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN62" s="6"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN63" s="6"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN64" s="6"/>
     </row>
-    <row r="65" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN65" s="6"/>
     </row>
-    <row r="66" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN66" s="6"/>
     </row>
-    <row r="67" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN67" s="6"/>
     </row>
-    <row r="68" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN68" s="6"/>
     </row>
-    <row r="69" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN69" s="6"/>
     </row>
-    <row r="70" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN70" s="6"/>
     </row>
-    <row r="71" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN71" s="6"/>
     </row>
-    <row r="72" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN72" s="6"/>
     </row>
-    <row r="73" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN73" s="6"/>
     </row>
-    <row r="74" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN74" s="6"/>
     </row>
-    <row r="75" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN75" s="6"/>
     </row>
-    <row r="76" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN76" s="6"/>
     </row>
-    <row r="77" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN77" s="6"/>
     </row>
-    <row r="78" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN78" s="6"/>
     </row>
-    <row r="79" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN79" s="6"/>
     </row>
-    <row r="80" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN80" s="6"/>
     </row>
-    <row r="81" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN81" s="6"/>
     </row>
-    <row r="82" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN82" s="6"/>
     </row>
-    <row r="83" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN83" s="6"/>
     </row>
-    <row r="84" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN84" s="6"/>
     </row>
-    <row r="85" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN85" s="6"/>
     </row>
-    <row r="86" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN86" s="6"/>
     </row>
-    <row r="87" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN87" s="6"/>
     </row>
-    <row r="88" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN88" s="6"/>
     </row>
-    <row r="89" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN89" s="6"/>
     </row>
-    <row r="90" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN90" s="6"/>
     </row>
-    <row r="91" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN91" s="6"/>
     </row>
-    <row r="92" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN92" s="6"/>
     </row>
-    <row r="93" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN93" s="6"/>
     </row>
-    <row r="94" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN94" s="6"/>
     </row>
-    <row r="95" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN95" s="6"/>
     </row>
-    <row r="96" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN96" s="6"/>
     </row>
-    <row r="97" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN97" s="6"/>
     </row>
-    <row r="98" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN98" s="6"/>
     </row>
-    <row r="99" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN99" s="6"/>
     </row>
-    <row r="100" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN100" s="6"/>
     </row>
-    <row r="101" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN101" s="6"/>
     </row>
-    <row r="102" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN102" s="6"/>
     </row>
-    <row r="103" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN103" s="6"/>
     </row>
   </sheetData>
@@ -4581,9 +4509,9 @@
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
@@ -7011,11 +6939,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -7037,7 +6965,7 @@
         <v>-0.15669907016060863</v>
       </c>
       <c r="C2" s="20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -7049,7 +6977,7 @@
         <v>-2.2956734167654504E-2</v>
       </c>
       <c r="C3" s="20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -7072,7 +7000,7 @@
         <v>-0.14246774193548389</v>
       </c>
       <c r="C5" s="20">
-        <f>About!$C$29</f>
+        <f>About!$C$25</f>
         <v>-0.25</v>
       </c>
     </row>
@@ -7084,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="20">
-        <f>About!$C$29</f>
+        <f>About!$C$25</f>
         <v>-0.25</v>
       </c>
     </row>
@@ -7097,12 +7025,13 @@
         <v>-0.15669907016060797</v>
       </c>
       <c r="C7" s="20">
-        <v>0</v>
+        <f>About!$C$25</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7119,108 +7048,108 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
-        <f>'Scoping Plan estimates'!A1</f>
+        <f>'California Pathways estimates'!A1</f>
         <v>Vehicle Type</v>
       </c>
       <c r="B1" t="str">
-        <f>'Scoping Plan estimates'!B1</f>
+        <f>'California Pathways estimates'!B1</f>
         <v>passengers</v>
       </c>
       <c r="C1" t="str">
-        <f>'Scoping Plan estimates'!C1</f>
+        <f>'California Pathways estimates'!C1</f>
         <v>freight</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
-        <f>'Scoping Plan estimates'!A2</f>
+        <f>'California Pathways estimates'!A2</f>
         <v>LDVs</v>
       </c>
       <c r="B2">
         <v>-0.2</v>
       </c>
       <c r="C2">
-        <f>'Scoping Plan estimates'!C2</f>
-        <v>0</v>
+        <f>$C$5</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f>'Scoping Plan estimates'!A3</f>
+        <f>'California Pathways estimates'!A3</f>
         <v>HDVs</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>'Scoping Plan estimates'!C3</f>
-        <v>0</v>
+        <f>$C$5</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f>'Scoping Plan estimates'!A4</f>
+        <f>'California Pathways estimates'!A4</f>
         <v>aircraft</v>
       </c>
       <c r="B4">
-        <f>'Scoping Plan estimates'!B4</f>
+        <f>'California Pathways estimates'!B4</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>'Scoping Plan estimates'!C4</f>
+        <f>'California Pathways estimates'!C4</f>
         <v>-0.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f>'Scoping Plan estimates'!A5</f>
+        <f>'California Pathways estimates'!A5</f>
         <v>rail</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <f>'Scoping Plan estimates'!C5</f>
+        <f>'California Pathways estimates'!C5</f>
         <v>-0.25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f>'Scoping Plan estimates'!A6</f>
+        <f>'California Pathways estimates'!A6</f>
         <v>ships</v>
       </c>
       <c r="B6">
-        <f>'Scoping Plan estimates'!B6</f>
+        <f>'California Pathways estimates'!B6</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Scoping Plan estimates'!C6</f>
+        <f>'California Pathways estimates'!C6</f>
         <v>-0.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f>'Scoping Plan estimates'!A7</f>
+        <f>'California Pathways estimates'!A7</f>
         <v>motorbikes</v>
       </c>
       <c r="B7">
         <v>-0.2</v>
       </c>
       <c r="C7">
-        <f>'Scoping Plan estimates'!C7</f>
-        <v>0</v>
+        <f>$C$5</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
